--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charleshsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60922733-FE7E-4FD2-962B-808B1C9213F7}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
@@ -36,24 +36,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B08F7BHDLY</t>
-  </si>
-  <si>
-    <t>B08F7HPJ4F</t>
-  </si>
-  <si>
-    <t>B083RVN2VG</t>
-  </si>
-  <si>
-    <t>B0C1ZZ57ZW</t>
-  </si>
-  <si>
-    <t>B0D2V2FPS7</t>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B07T6N8N56</t>
+  </si>
+  <si>
+    <t>B07FWY246F</t>
+  </si>
+  <si>
+    <t>B07FW85VFT</t>
+  </si>
+  <si>
+    <t>B08KWMXGQW</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B0D8WH9NG3</t>
+  </si>
+  <si>
+    <t>B08JHDL4WP</t>
+  </si>
+  <si>
+    <t>B08LGKGBKT</t>
+  </si>
+  <si>
+    <t>B089FY7QT1</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08BR1XDX5</t>
+  </si>
+  <si>
+    <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B08L74NCPQ</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0CTNYTX8Y</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BH6XND27</t>
+  </si>
+  <si>
+    <t>B083SJLWL9</t>
+  </si>
+  <si>
+    <t>B0CCWLMK56</t>
+  </si>
+  <si>
+    <t>B0D8WKK29M</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B0BZ17BQ4Z</t>
+  </si>
+  <si>
+    <t>B0BJ5SDGXK</t>
+  </si>
+  <si>
+    <t>B0BSB6MZ2L</t>
+  </si>
+  <si>
+    <t>B0CTTW2MVG</t>
+  </si>
+  <si>
+    <t>B0BSNYN4XQ</t>
+  </si>
+  <si>
+    <t>B0CTTWZCVK</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BVWQ3BMJ</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BZQ1PWGJ</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B083R7SWF5</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B079NYQQJJ</t>
+  </si>
+  <si>
+    <t>B07GBM3M88</t>
+  </si>
+  <si>
+    <t>B07VNBC5PS</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B09S6NQPM6</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B07WL5MFXL</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0BF7CL99N</t>
+  </si>
+  <si>
+    <t>B0CN76TH9S</t>
+  </si>
+  <si>
+    <t>B0BF73P6HY</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>B087GFYBCW</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>B083NPKL1C</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>B09WZKXNVP</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B08W8G5CCC</t>
+  </si>
+  <si>
+    <t>B0BHTLF2X5</t>
+  </si>
+  <si>
+    <t>B07HRZKPXM</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B089FTMG2B</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
+  </si>
+  <si>
+    <t>B09QNVD2SW</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>B07WL68L6M</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
   </si>
 </sst>
 </file>
@@ -425,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +748,481 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60922733-FE7E-4FD2-962B-808B1C9213F7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705FB532-BBBD-4F49-9642-4DE18AF08D6E}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
@@ -36,309 +36,261 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B0C4CKFV65</t>
-  </si>
-  <si>
-    <t>B07T6N8N56</t>
-  </si>
-  <si>
-    <t>B07FWY246F</t>
-  </si>
-  <si>
-    <t>B07FW85VFT</t>
-  </si>
-  <si>
-    <t>B08KWMXGQW</t>
-  </si>
-  <si>
-    <t>B08B7ZX8Q2</t>
-  </si>
-  <si>
-    <t>B08KGVH7YC</t>
-  </si>
-  <si>
-    <t>B0D8WH9NG3</t>
-  </si>
-  <si>
-    <t>B08JHDL4WP</t>
-  </si>
-  <si>
-    <t>B08LGKGBKT</t>
-  </si>
-  <si>
-    <t>B089FY7QT1</t>
-  </si>
-  <si>
-    <t>B0BTQ3SVFR</t>
-  </si>
-  <si>
-    <t>B089FWWN62</t>
-  </si>
-  <si>
-    <t>B08BR1XDX5</t>
-  </si>
-  <si>
-    <t>B0BZQ1TNW8</t>
-  </si>
-  <si>
-    <t>B08L74NCPQ</t>
-  </si>
-  <si>
-    <t>B08R5736B3</t>
-  </si>
-  <si>
-    <t>B0BTTZFQTP</t>
-  </si>
-  <si>
-    <t>B0BH79FMW3</t>
-  </si>
-  <si>
-    <t>B0BH7GTY9C</t>
-  </si>
-  <si>
-    <t>B0CMJSH15D</t>
-  </si>
-  <si>
-    <t>B0CMK1W2YX</t>
-  </si>
-  <si>
-    <t>B083TZ68H1</t>
-  </si>
-  <si>
-    <t>B0BYBHW4SH</t>
-  </si>
-  <si>
-    <t>B0CTTY491F</t>
-  </si>
-  <si>
-    <t>B0CTNYTX8Y</t>
-  </si>
-  <si>
-    <t>B0CTNXBRJV</t>
-  </si>
-  <si>
-    <t>B083R826VW</t>
-  </si>
-  <si>
-    <t>B0BH6XND27</t>
-  </si>
-  <si>
-    <t>B083SJLWL9</t>
-  </si>
-  <si>
-    <t>B0CCWLMK56</t>
-  </si>
-  <si>
-    <t>B0D8WKK29M</t>
-  </si>
-  <si>
-    <t>B0CH92B3S2</t>
-  </si>
-  <si>
-    <t>B0CTTXH95Q</t>
-  </si>
-  <si>
-    <t>B0D2V4VH2C</t>
-  </si>
-  <si>
-    <t>B0BZ17BQ4Z</t>
-  </si>
-  <si>
-    <t>B0BJ5SDGXK</t>
-  </si>
-  <si>
-    <t>B0BSB6MZ2L</t>
-  </si>
-  <si>
-    <t>B0CTTW2MVG</t>
-  </si>
-  <si>
-    <t>B0BSNYN4XQ</t>
-  </si>
-  <si>
-    <t>B0CTTWZCVK</t>
-  </si>
-  <si>
-    <t>B0BZ54DR5L</t>
-  </si>
-  <si>
-    <t>B0C4CKCRYW</t>
-  </si>
-  <si>
-    <t>B0BVWQ3BMJ</t>
-  </si>
-  <si>
-    <t>B0BSB4TYHV</t>
-  </si>
-  <si>
-    <t>B0BZQ1PWGJ</t>
-  </si>
-  <si>
-    <t>B0CNR6L1DH</t>
-  </si>
-  <si>
-    <t>B0BSP61QZC</t>
-  </si>
-  <si>
-    <t>B083R7SWF5</t>
-  </si>
-  <si>
-    <t>B0BSB6MB15</t>
-  </si>
-  <si>
-    <t>B0D54QJ9CJ</t>
-  </si>
-  <si>
-    <t>B079NYQQJJ</t>
-  </si>
-  <si>
-    <t>B07GBM3M88</t>
-  </si>
-  <si>
-    <t>B07VNBC5PS</t>
-  </si>
-  <si>
-    <t>B091HTG6DQ</t>
-  </si>
-  <si>
-    <t>B0D33M6CB7</t>
-  </si>
-  <si>
-    <t>B0C4CB8G8D</t>
-  </si>
-  <si>
-    <t>B083NK82QJ</t>
-  </si>
-  <si>
-    <t>B0BZQ416QM</t>
-  </si>
-  <si>
-    <t>B09S6NQPM6</t>
-  </si>
-  <si>
-    <t>B0BVBXT6P1</t>
-  </si>
-  <si>
-    <t>B0C1M2BDNR</t>
-  </si>
-  <si>
-    <t>B0CPW1F841</t>
-  </si>
-  <si>
-    <t>B07WL5MFXL</t>
-  </si>
-  <si>
-    <t>B0BF7FT26Z</t>
-  </si>
-  <si>
-    <t>B0CNR8Y29S</t>
-  </si>
-  <si>
-    <t>B0BF7CL99N</t>
-  </si>
-  <si>
-    <t>B0CN76TH9S</t>
-  </si>
-  <si>
-    <t>B0BF73P6HY</t>
-  </si>
-  <si>
-    <t>B07HS59X7P</t>
-  </si>
-  <si>
-    <t>B087GFYBCW</t>
-  </si>
-  <si>
-    <t>B087GH5SK2</t>
-  </si>
-  <si>
-    <t>B083GT6ZBX</t>
-  </si>
-  <si>
-    <t>B083NN4MLZ</t>
-  </si>
-  <si>
-    <t>B09L9DY4L1</t>
-  </si>
-  <si>
-    <t>B083NPKL1C</t>
-  </si>
-  <si>
-    <t>B09J64TBJG</t>
-  </si>
-  <si>
-    <t>B09JZFT4SN</t>
-  </si>
-  <si>
-    <t>B09WZKXNVP</t>
-  </si>
-  <si>
-    <t>B09J5TC4F8</t>
-  </si>
-  <si>
-    <t>B09JZGTYXJ</t>
-  </si>
-  <si>
-    <t>B0BH9BBLHB</t>
-  </si>
-  <si>
-    <t>B0BH9DXY38</t>
-  </si>
-  <si>
-    <t>B08W8G5CCC</t>
-  </si>
-  <si>
-    <t>B0BHTLF2X5</t>
-  </si>
-  <si>
-    <t>B07HRZKPXM</t>
-  </si>
-  <si>
-    <t>B0CKS6BMH7</t>
-  </si>
-  <si>
-    <t>B083RW9KDM</t>
-  </si>
-  <si>
-    <t>B0BH9F7DKS</t>
-  </si>
-  <si>
-    <t>B083RVX2FQ</t>
-  </si>
-  <si>
-    <t>B089FTMG2B</t>
-  </si>
-  <si>
-    <t>B083RW9TJF</t>
-  </si>
-  <si>
-    <t>B0CTTVFWHM</t>
-  </si>
-  <si>
-    <t>B0CTTWH6TD</t>
-  </si>
-  <si>
-    <t>B083R7PHMX</t>
-  </si>
-  <si>
-    <t>B09QNVD2SW</t>
-  </si>
-  <si>
-    <t>B08WPV5HS7</t>
-  </si>
-  <si>
-    <t>B07WL68L6M</t>
-  </si>
-  <si>
-    <t>B0CTNPZLNH</t>
-  </si>
-  <si>
-    <t>B0D8WH39QJ</t>
+    <t>B07C3DWK1Z</t>
+  </si>
+  <si>
+    <t>B06X9GLGSC</t>
+  </si>
+  <si>
+    <t>B01M4KGTNI</t>
+  </si>
+  <si>
+    <t>B01KQUDE2Y</t>
+  </si>
+  <si>
+    <t>B0CS68S77J</t>
+  </si>
+  <si>
+    <t>B08BNRR5SJ</t>
+  </si>
+  <si>
+    <t>B07NJQLQWP</t>
+  </si>
+  <si>
+    <t>B09QVPMGYV</t>
+  </si>
+  <si>
+    <t>B0CVHD8PLP</t>
+  </si>
+  <si>
+    <t>B0D4XZXLL7</t>
+  </si>
+  <si>
+    <t>B0C1T7FYQ3</t>
+  </si>
+  <si>
+    <t>B0971BG25M</t>
+  </si>
+  <si>
+    <t>B0C88SM4LK</t>
+  </si>
+  <si>
+    <t>B0CLF23DXB</t>
+  </si>
+  <si>
+    <t>B09C43DLXG</t>
+  </si>
+  <si>
+    <t>B09BKBJ14W</t>
+  </si>
+  <si>
+    <t>B098PL79LS</t>
+  </si>
+  <si>
+    <t>B0BV89RLW8</t>
+  </si>
+  <si>
+    <t>B098Q5RC7M</t>
+  </si>
+  <si>
+    <t>B098Q4M4WH</t>
+  </si>
+  <si>
+    <t>B097GMHNCT</t>
+  </si>
+  <si>
+    <t>B097G7RBSZ</t>
+  </si>
+  <si>
+    <t>B097G7KYJ2</t>
+  </si>
+  <si>
+    <t>B09DV9GHT9</t>
+  </si>
+  <si>
+    <t>B095KWZHJB</t>
+  </si>
+  <si>
+    <t>B0C8K3DFD9</t>
+  </si>
+  <si>
+    <t>B0C8K441T1</t>
+  </si>
+  <si>
+    <t>B0D2JDP1VK</t>
+  </si>
+  <si>
+    <t>B0C8KQRH32</t>
+  </si>
+  <si>
+    <t>B0CDJLSZ73</t>
+  </si>
+  <si>
+    <t>B0C8JZNLZL</t>
+  </si>
+  <si>
+    <t>B0CBVXZSGJ</t>
+  </si>
+  <si>
+    <t>B0C5C1N668</t>
+  </si>
+  <si>
+    <t>B0C5BZZQBG</t>
+  </si>
+  <si>
+    <t>B0C5BQ1HM6</t>
+  </si>
+  <si>
+    <t>B0D2JFYR6R</t>
+  </si>
+  <si>
+    <t>B0CBVXZDDL</t>
+  </si>
+  <si>
+    <t>B0C5B9M9JY</t>
+  </si>
+  <si>
+    <t>B0CJ9VSCVF</t>
+  </si>
+  <si>
+    <t>B0CBW16TL3</t>
+  </si>
+  <si>
+    <t>B0BZHFLRLM</t>
+  </si>
+  <si>
+    <t>B0CT3V77VQ</t>
+  </si>
+  <si>
+    <t>B0BZHFLKC2</t>
+  </si>
+  <si>
+    <t>B0BZHBRQCQ</t>
+  </si>
+  <si>
+    <t>B0BZHCQ6PF</t>
+  </si>
+  <si>
+    <t>B0CSJZ9YK3</t>
+  </si>
+  <si>
+    <t>B0CSJYJP6M</t>
+  </si>
+  <si>
+    <t>B0CVHD8Y97</t>
+  </si>
+  <si>
+    <t>B0CSJWWDS7</t>
+  </si>
+  <si>
+    <t>B0CSJV61BN</t>
+  </si>
+  <si>
+    <t>B0BRR1MPTX</t>
+  </si>
+  <si>
+    <t>B0C5BS1LL9</t>
+  </si>
+  <si>
+    <t>B0C6YJ2HTH</t>
+  </si>
+  <si>
+    <t>B0BRR2R8HH</t>
+  </si>
+  <si>
+    <t>B0CSK2GJXP</t>
+  </si>
+  <si>
+    <t>B0D87BVDWQ</t>
+  </si>
+  <si>
+    <t>B0CSK87B4R</t>
+  </si>
+  <si>
+    <t>B0CSJVCD3Y</t>
+  </si>
+  <si>
+    <t>B0CSK393CR</t>
+  </si>
+  <si>
+    <t>B0C8ZLMKP9</t>
+  </si>
+  <si>
+    <t>B0CSKBG4T3</t>
+  </si>
+  <si>
+    <t>B0CSJYJRKD</t>
+  </si>
+  <si>
+    <t>B0CSK2GHR8</t>
+  </si>
+  <si>
+    <t>B0BXMP9QVF</t>
+  </si>
+  <si>
+    <t>B0BGP8FGNZ</t>
+  </si>
+  <si>
+    <t>B0C8LS7PT2</t>
+  </si>
+  <si>
+    <t>B0C82C1PWN</t>
+  </si>
+  <si>
+    <t>B01IEO05NU</t>
+  </si>
+  <si>
+    <t>B07TZ4VFB6</t>
+  </si>
+  <si>
+    <t>B07W95D5V3</t>
+  </si>
+  <si>
+    <t>B09QNQZMZR</t>
+  </si>
+  <si>
+    <t>B09J2NCD2L</t>
+  </si>
+  <si>
+    <t>B08Z4J6NHW</t>
+  </si>
+  <si>
+    <t>B08Z5M4KFM</t>
+  </si>
+  <si>
+    <t>B09YVPZ3RY</t>
+  </si>
+  <si>
+    <t>B08PFX6PZ6</t>
+  </si>
+  <si>
+    <t>B097FYBRXH</t>
+  </si>
+  <si>
+    <t>B0C5S9CHMG</t>
+  </si>
+  <si>
+    <t>B0CSVJZNNX</t>
+  </si>
+  <si>
+    <t>B0CGC5P7H3</t>
+  </si>
+  <si>
+    <t>B0CGHQ32S2</t>
+  </si>
+  <si>
+    <t>B0BRBX747V</t>
+  </si>
+  <si>
+    <t>B0BRBXF3MW</t>
+  </si>
+  <si>
+    <t>B0DGGWZPZL</t>
   </si>
 </sst>
 </file>
@@ -391,6 +343,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+      <selection activeCell="A2" sqref="A2:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,86 +1099,6 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705FB532-BBBD-4F49-9642-4DE18AF08D6E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CD2A72B-5923-4C01-B624-C42DE715BAC7}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,261 +36,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B07C3DWK1Z</t>
-  </si>
-  <si>
-    <t>B06X9GLGSC</t>
-  </si>
-  <si>
-    <t>B01M4KGTNI</t>
-  </si>
-  <si>
-    <t>B01KQUDE2Y</t>
-  </si>
-  <si>
-    <t>B0CS68S77J</t>
-  </si>
-  <si>
-    <t>B08BNRR5SJ</t>
-  </si>
-  <si>
-    <t>B07NJQLQWP</t>
-  </si>
-  <si>
-    <t>B09QVPMGYV</t>
-  </si>
-  <si>
-    <t>B0CVHD8PLP</t>
-  </si>
-  <si>
-    <t>B0D4XZXLL7</t>
-  </si>
-  <si>
-    <t>B0C1T7FYQ3</t>
-  </si>
-  <si>
-    <t>B0971BG25M</t>
-  </si>
-  <si>
-    <t>B0C88SM4LK</t>
-  </si>
-  <si>
-    <t>B0CLF23DXB</t>
-  </si>
-  <si>
-    <t>B09C43DLXG</t>
-  </si>
-  <si>
-    <t>B09BKBJ14W</t>
-  </si>
-  <si>
-    <t>B098PL79LS</t>
-  </si>
-  <si>
-    <t>B0BV89RLW8</t>
-  </si>
-  <si>
-    <t>B098Q5RC7M</t>
-  </si>
-  <si>
-    <t>B098Q4M4WH</t>
-  </si>
-  <si>
-    <t>B097GMHNCT</t>
-  </si>
-  <si>
-    <t>B097G7RBSZ</t>
-  </si>
-  <si>
-    <t>B097G7KYJ2</t>
-  </si>
-  <si>
-    <t>B09DV9GHT9</t>
-  </si>
-  <si>
-    <t>B095KWZHJB</t>
-  </si>
-  <si>
-    <t>B0C8K3DFD9</t>
-  </si>
-  <si>
-    <t>B0C8K441T1</t>
-  </si>
-  <si>
-    <t>B0D2JDP1VK</t>
-  </si>
-  <si>
-    <t>B0C8KQRH32</t>
-  </si>
-  <si>
-    <t>B0CDJLSZ73</t>
-  </si>
-  <si>
-    <t>B0C8JZNLZL</t>
-  </si>
-  <si>
-    <t>B0CBVXZSGJ</t>
-  </si>
-  <si>
-    <t>B0C5C1N668</t>
-  </si>
-  <si>
-    <t>B0C5BZZQBG</t>
-  </si>
-  <si>
-    <t>B0C5BQ1HM6</t>
-  </si>
-  <si>
-    <t>B0D2JFYR6R</t>
-  </si>
-  <si>
-    <t>B0CBVXZDDL</t>
-  </si>
-  <si>
-    <t>B0C5B9M9JY</t>
-  </si>
-  <si>
-    <t>B0CJ9VSCVF</t>
-  </si>
-  <si>
-    <t>B0CBW16TL3</t>
-  </si>
-  <si>
-    <t>B0BZHFLRLM</t>
-  </si>
-  <si>
-    <t>B0CT3V77VQ</t>
-  </si>
-  <si>
-    <t>B0BZHFLKC2</t>
-  </si>
-  <si>
-    <t>B0BZHBRQCQ</t>
-  </si>
-  <si>
-    <t>B0BZHCQ6PF</t>
-  </si>
-  <si>
-    <t>B0CSJZ9YK3</t>
-  </si>
-  <si>
-    <t>B0CSJYJP6M</t>
-  </si>
-  <si>
-    <t>B0CVHD8Y97</t>
-  </si>
-  <si>
-    <t>B0CSJWWDS7</t>
-  </si>
-  <si>
-    <t>B0CSJV61BN</t>
-  </si>
-  <si>
-    <t>B0BRR1MPTX</t>
-  </si>
-  <si>
-    <t>B0C5BS1LL9</t>
-  </si>
-  <si>
-    <t>B0C6YJ2HTH</t>
-  </si>
-  <si>
-    <t>B0BRR2R8HH</t>
-  </si>
-  <si>
-    <t>B0CSK2GJXP</t>
-  </si>
-  <si>
-    <t>B0D87BVDWQ</t>
-  </si>
-  <si>
-    <t>B0CSK87B4R</t>
-  </si>
-  <si>
-    <t>B0CSJVCD3Y</t>
-  </si>
-  <si>
-    <t>B0CSK393CR</t>
-  </si>
-  <si>
-    <t>B0C8ZLMKP9</t>
-  </si>
-  <si>
-    <t>B0CSKBG4T3</t>
-  </si>
-  <si>
-    <t>B0CSJYJRKD</t>
-  </si>
-  <si>
-    <t>B0CSK2GHR8</t>
-  </si>
-  <si>
-    <t>B0BXMP9QVF</t>
-  </si>
-  <si>
-    <t>B0BGP8FGNZ</t>
-  </si>
-  <si>
-    <t>B0C8LS7PT2</t>
-  </si>
-  <si>
-    <t>B0C82C1PWN</t>
-  </si>
-  <si>
-    <t>B01IEO05NU</t>
-  </si>
-  <si>
-    <t>B07TZ4VFB6</t>
-  </si>
-  <si>
-    <t>B07W95D5V3</t>
-  </si>
-  <si>
-    <t>B09QNQZMZR</t>
-  </si>
-  <si>
-    <t>B09J2NCD2L</t>
-  </si>
-  <si>
-    <t>B08Z4J6NHW</t>
-  </si>
-  <si>
-    <t>B08Z5M4KFM</t>
-  </si>
-  <si>
-    <t>B09YVPZ3RY</t>
-  </si>
-  <si>
-    <t>B08PFX6PZ6</t>
-  </si>
-  <si>
-    <t>B097FYBRXH</t>
-  </si>
-  <si>
-    <t>B0C5S9CHMG</t>
-  </si>
-  <si>
-    <t>B0CSVJZNNX</t>
-  </si>
-  <si>
-    <t>B0CGC5P7H3</t>
-  </si>
-  <si>
-    <t>B0CGHQ32S2</t>
-  </si>
-  <si>
-    <t>B0BRBX747V</t>
-  </si>
-  <si>
-    <t>B0BRBXF3MW</t>
-  </si>
-  <si>
-    <t>B0DGGWZPZL</t>
+    <t>B0CSZ6VCS7</t>
+  </si>
+  <si>
+    <t>B09SWHZ7F7</t>
+  </si>
+  <si>
+    <t>B0B3SLQDQF</t>
+  </si>
+  <si>
+    <t>B0D8HD6L6N</t>
+  </si>
+  <si>
+    <t>B0D1RL9D39</t>
+  </si>
+  <si>
+    <t>B0D51672JM</t>
+  </si>
+  <si>
+    <t>B0D256HQ2H</t>
+  </si>
+  <si>
+    <t>B0D1RLLPTP</t>
+  </si>
+  <si>
+    <t>B09886GDFD</t>
+  </si>
+  <si>
+    <t>B0947K1VRX</t>
+  </si>
+  <si>
+    <t>B0B3SM3SMJ</t>
+  </si>
+  <si>
+    <t>B0B5VY6ZFC</t>
+  </si>
+  <si>
+    <t>B0D25F2113</t>
+  </si>
+  <si>
+    <t>B09ZKHW4M7</t>
+  </si>
+  <si>
+    <t>B0D25NYV7Z</t>
+  </si>
+  <si>
+    <t>B0927959GD</t>
+  </si>
+  <si>
+    <t>B0926ZVM75</t>
+  </si>
+  <si>
+    <t>B09JBLHBWJ</t>
+  </si>
+  <si>
+    <t>B0D254J2D6</t>
+  </si>
+  <si>
+    <t>B0D68TD621</t>
+  </si>
+  <si>
+    <t>B09S5ZZ5V7</t>
+  </si>
+  <si>
+    <t>B0CG2QBHCP</t>
+  </si>
+  <si>
+    <t>B0D1RM2TQW</t>
+  </si>
+  <si>
+    <t>B0CYK4DQD7</t>
+  </si>
+  <si>
+    <t>B0CCSX399J</t>
+  </si>
+  <si>
+    <t>B0CHSJ32YF</t>
+  </si>
+  <si>
+    <t>B0D5DFX7KH</t>
+  </si>
+  <si>
+    <t>B0D5DF12VH</t>
+  </si>
+  <si>
+    <t>B09VH8B1XW</t>
+  </si>
+  <si>
+    <t>B0DCGRKNKM</t>
+  </si>
+  <si>
+    <t>B0DCGPTNKV</t>
+  </si>
+  <si>
+    <t>B08JWCHR5N</t>
+  </si>
+  <si>
+    <t>B0B5YKGWXS</t>
+  </si>
+  <si>
+    <t>B0C3Z74ZP5</t>
+  </si>
+  <si>
+    <t>B0B94TKRVP</t>
+  </si>
+  <si>
+    <t>B094NX6C8R</t>
+  </si>
+  <si>
+    <t>B0B3SLT2NM</t>
+  </si>
+  <si>
+    <t>B0BF5FFDH8</t>
+  </si>
+  <si>
+    <t>B09WPTKDQY</t>
+  </si>
+  <si>
+    <t>B083GRVFXN</t>
+  </si>
+  <si>
+    <t>B0B3SJ7L7Q</t>
+  </si>
+  <si>
+    <t>B09GL7HQ6S</t>
+  </si>
+  <si>
+    <t>B0D6GYZWS6</t>
+  </si>
+  <si>
+    <t>B0D6GXXGCZ</t>
+  </si>
+  <si>
+    <t>B0B4MJBSD9</t>
   </si>
 </sst>
 </file>
@@ -666,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A85"/>
+      <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,201 +787,6 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CD2A72B-5923-4C01-B624-C42DE715BAC7}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B2198C-74D2-408A-89D3-49663ED31E71}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
@@ -36,144 +36,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B0CSZ6VCS7</t>
-  </si>
-  <si>
-    <t>B09SWHZ7F7</t>
-  </si>
-  <si>
-    <t>B0B3SLQDQF</t>
-  </si>
-  <si>
-    <t>B0D8HD6L6N</t>
-  </si>
-  <si>
-    <t>B0D1RL9D39</t>
-  </si>
-  <si>
-    <t>B0D51672JM</t>
-  </si>
-  <si>
-    <t>B0D256HQ2H</t>
-  </si>
-  <si>
-    <t>B0D1RLLPTP</t>
-  </si>
-  <si>
-    <t>B09886GDFD</t>
-  </si>
-  <si>
-    <t>B0947K1VRX</t>
-  </si>
-  <si>
-    <t>B0B3SM3SMJ</t>
-  </si>
-  <si>
-    <t>B0B5VY6ZFC</t>
-  </si>
-  <si>
-    <t>B0D25F2113</t>
-  </si>
-  <si>
-    <t>B09ZKHW4M7</t>
-  </si>
-  <si>
-    <t>B0D25NYV7Z</t>
-  </si>
-  <si>
-    <t>B0927959GD</t>
-  </si>
-  <si>
-    <t>B0926ZVM75</t>
-  </si>
-  <si>
-    <t>B09JBLHBWJ</t>
-  </si>
-  <si>
-    <t>B0D254J2D6</t>
-  </si>
-  <si>
-    <t>B0D68TD621</t>
-  </si>
-  <si>
-    <t>B09S5ZZ5V7</t>
-  </si>
-  <si>
-    <t>B0CG2QBHCP</t>
-  </si>
-  <si>
-    <t>B0D1RM2TQW</t>
-  </si>
-  <si>
-    <t>B0CYK4DQD7</t>
-  </si>
-  <si>
-    <t>B0CCSX399J</t>
-  </si>
-  <si>
-    <t>B0CHSJ32YF</t>
-  </si>
-  <si>
-    <t>B0D5DFX7KH</t>
-  </si>
-  <si>
-    <t>B0D5DF12VH</t>
-  </si>
-  <si>
-    <t>B09VH8B1XW</t>
-  </si>
-  <si>
-    <t>B0DCGRKNKM</t>
-  </si>
-  <si>
-    <t>B0DCGPTNKV</t>
-  </si>
-  <si>
-    <t>B08JWCHR5N</t>
-  </si>
-  <si>
-    <t>B0B5YKGWXS</t>
-  </si>
-  <si>
-    <t>B0C3Z74ZP5</t>
-  </si>
-  <si>
-    <t>B0B94TKRVP</t>
-  </si>
-  <si>
-    <t>B094NX6C8R</t>
-  </si>
-  <si>
-    <t>B0B3SLT2NM</t>
-  </si>
-  <si>
-    <t>B0BF5FFDH8</t>
-  </si>
-  <si>
-    <t>B09WPTKDQY</t>
-  </si>
-  <si>
-    <t>B083GRVFXN</t>
-  </si>
-  <si>
-    <t>B0B3SJ7L7Q</t>
-  </si>
-  <si>
-    <t>B09GL7HQ6S</t>
-  </si>
-  <si>
-    <t>B0D6GYZWS6</t>
-  </si>
-  <si>
-    <t>B0D6GXXGCZ</t>
-  </si>
-  <si>
-    <t>B0B4MJBSD9</t>
+    <t>B0D3HB3ZKG</t>
+  </si>
+  <si>
+    <t>B0BVRFRK5S</t>
+  </si>
+  <si>
+    <t>B0BVRGMXHG</t>
+  </si>
+  <si>
+    <t>B07SFR748X</t>
+  </si>
+  <si>
+    <t>B07SKLQXQX</t>
+  </si>
+  <si>
+    <t>B0BVRF9XKS</t>
+  </si>
+  <si>
+    <t>B0BVRLCN99</t>
+  </si>
+  <si>
+    <t>B0D3HB4SFN</t>
+  </si>
+  <si>
+    <t>B09Z7349N8</t>
+  </si>
+  <si>
+    <t>B0BJNL7NRJ</t>
+  </si>
+  <si>
+    <t>B0D3HBRGLQ</t>
+  </si>
+  <si>
+    <t>B0C8W4N4TM</t>
+  </si>
+  <si>
+    <t>B0BVRF2X8K</t>
+  </si>
+  <si>
+    <t>B0CW28JXRJ</t>
+  </si>
+  <si>
+    <t>B0BVRM8ZSG</t>
+  </si>
+  <si>
+    <t>B0D3HDW513</t>
+  </si>
+  <si>
+    <t>B0CC3W59JB</t>
+  </si>
+  <si>
+    <t>B0CGGZ3XBG</t>
+  </si>
+  <si>
+    <t>B0CGH1BMZJ</t>
+  </si>
+  <si>
+    <t>B0CV31TDXM</t>
+  </si>
+  <si>
+    <t>B0CW286XRZ</t>
+  </si>
+  <si>
+    <t>B0CW2BM5MV</t>
+  </si>
+  <si>
+    <t>B0CW27V4HC</t>
+  </si>
+  <si>
+    <t>B0CV2RQC53</t>
+  </si>
+  <si>
+    <t>B0BVRFK7CZ</t>
+  </si>
+  <si>
+    <t>B0CW297HQV</t>
+  </si>
+  <si>
+    <t>B0D3HBPGV8</t>
+  </si>
+  <si>
+    <t>B0D3HDFR62</t>
+  </si>
+  <si>
+    <t>B0D3HBK8LP</t>
+  </si>
+  <si>
+    <t>B0D3HD1XFH</t>
+  </si>
+  <si>
+    <t>B0BSR8959Z</t>
+  </si>
+  <si>
+    <t>B0D3HBKW8C</t>
+  </si>
+  <si>
+    <t>B0BSR8VSF2</t>
+  </si>
+  <si>
+    <t>B0CGH12MPN</t>
+  </si>
+  <si>
+    <t>B0CV3B64K2</t>
+  </si>
+  <si>
+    <t>B0CGGZZTV3</t>
+  </si>
+  <si>
+    <t>B0CV2VVTX4</t>
+  </si>
+  <si>
+    <t>B0BZQMXLZP</t>
+  </si>
+  <si>
+    <t>B0D3HBTT18</t>
+  </si>
+  <si>
+    <t>B0CV2SCH63</t>
+  </si>
+  <si>
+    <t>B0CW2D76QR</t>
+  </si>
+  <si>
+    <t>B0CV2JQNX1</t>
+  </si>
+  <si>
+    <t>B0CW273Y8K</t>
+  </si>
+  <si>
+    <t>B0CW27TFS3</t>
+  </si>
+  <si>
+    <t>B0CW27N4TC</t>
+  </si>
+  <si>
+    <t>B09QPS8LRG</t>
+  </si>
+  <si>
+    <t>B0D3H8J99H</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A46"/>
+      <selection activeCell="A2" sqref="A2:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +793,16 @@
         <v>45</v>
       </c>
     </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B2198C-74D2-408A-89D3-49663ED31E71}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE909B4A-6EC0-4FF7-B1C0-6C4DB438E6D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
@@ -36,150 +36,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B0D3HB3ZKG</t>
-  </si>
-  <si>
-    <t>B0BVRFRK5S</t>
-  </si>
-  <si>
-    <t>B0BVRGMXHG</t>
-  </si>
-  <si>
-    <t>B07SFR748X</t>
-  </si>
-  <si>
-    <t>B07SKLQXQX</t>
-  </si>
-  <si>
-    <t>B0BVRF9XKS</t>
-  </si>
-  <si>
-    <t>B0BVRLCN99</t>
-  </si>
-  <si>
-    <t>B0D3HB4SFN</t>
-  </si>
-  <si>
-    <t>B09Z7349N8</t>
-  </si>
-  <si>
-    <t>B0BJNL7NRJ</t>
-  </si>
-  <si>
-    <t>B0D3HBRGLQ</t>
-  </si>
-  <si>
-    <t>B0C8W4N4TM</t>
-  </si>
-  <si>
-    <t>B0BVRF2X8K</t>
-  </si>
-  <si>
-    <t>B0CW28JXRJ</t>
-  </si>
-  <si>
-    <t>B0BVRM8ZSG</t>
-  </si>
-  <si>
-    <t>B0D3HDW513</t>
-  </si>
-  <si>
-    <t>B0CC3W59JB</t>
-  </si>
-  <si>
-    <t>B0CGGZ3XBG</t>
-  </si>
-  <si>
-    <t>B0CGH1BMZJ</t>
-  </si>
-  <si>
-    <t>B0CV31TDXM</t>
-  </si>
-  <si>
-    <t>B0CW286XRZ</t>
-  </si>
-  <si>
-    <t>B0CW2BM5MV</t>
-  </si>
-  <si>
-    <t>B0CW27V4HC</t>
-  </si>
-  <si>
-    <t>B0CV2RQC53</t>
-  </si>
-  <si>
-    <t>B0BVRFK7CZ</t>
-  </si>
-  <si>
-    <t>B0CW297HQV</t>
-  </si>
-  <si>
-    <t>B0D3HBPGV8</t>
-  </si>
-  <si>
-    <t>B0D3HDFR62</t>
-  </si>
-  <si>
-    <t>B0D3HBK8LP</t>
-  </si>
-  <si>
-    <t>B0D3HD1XFH</t>
-  </si>
-  <si>
-    <t>B0BSR8959Z</t>
-  </si>
-  <si>
-    <t>B0D3HBKW8C</t>
-  </si>
-  <si>
-    <t>B0BSR8VSF2</t>
-  </si>
-  <si>
-    <t>B0CGH12MPN</t>
-  </si>
-  <si>
-    <t>B0CV3B64K2</t>
-  </si>
-  <si>
-    <t>B0CGGZZTV3</t>
-  </si>
-  <si>
-    <t>B0CV2VVTX4</t>
-  </si>
-  <si>
-    <t>B0BZQMXLZP</t>
-  </si>
-  <si>
-    <t>B0D3HBTT18</t>
-  </si>
-  <si>
-    <t>B0CV2SCH63</t>
-  </si>
-  <si>
-    <t>B0CW2D76QR</t>
-  </si>
-  <si>
-    <t>B0CV2JQNX1</t>
-  </si>
-  <si>
-    <t>B0CW273Y8K</t>
-  </si>
-  <si>
-    <t>B0CW27TFS3</t>
-  </si>
-  <si>
-    <t>B0CW27N4TC</t>
-  </si>
-  <si>
-    <t>B09QPS8LRG</t>
-  </si>
-  <si>
-    <t>B0D3H8J99H</t>
+    <t>B0CSTCZMQ5</t>
+  </si>
+  <si>
+    <t>B0BTJYYTGM</t>
+  </si>
+  <si>
+    <t>B0BTK4H5VS</t>
+  </si>
+  <si>
+    <t>B09VKFM255</t>
+  </si>
+  <si>
+    <t>B0BZFVFTWC</t>
+  </si>
+  <si>
+    <t>B09VK35VYJ</t>
+  </si>
+  <si>
+    <t>B09VKF3CFC</t>
+  </si>
+  <si>
+    <t>B0CKM1JX4S</t>
+  </si>
+  <si>
+    <t>B0BSMJM9D7</t>
+  </si>
+  <si>
+    <t>B09RK7GFQL</t>
+  </si>
+  <si>
+    <t>B09VK3TVK2</t>
+  </si>
+  <si>
+    <t>B09VK3W3Y3</t>
+  </si>
+  <si>
+    <t>B079SSKYWB</t>
+  </si>
+  <si>
+    <t>B08DKJJFW6</t>
+  </si>
+  <si>
+    <t>B08BT9CJYX</t>
+  </si>
+  <si>
+    <t>B08JGPBML2</t>
+  </si>
+  <si>
+    <t>B08DK7YPX4</t>
+  </si>
+  <si>
+    <t>B07ZS9GZRY</t>
+  </si>
+  <si>
+    <t>B07HCXL27D</t>
+  </si>
+  <si>
+    <t>B09T39WL99</t>
+  </si>
+  <si>
+    <t>B0CPQBJ3JW</t>
+  </si>
+  <si>
+    <t>B08YMY8ZZ3</t>
+  </si>
+  <si>
+    <t>B08YMVNQDJ</t>
+  </si>
+  <si>
+    <t>B0CPQ8V6LM</t>
+  </si>
+  <si>
+    <t>B0CPQ9M15Y</t>
+  </si>
+  <si>
+    <t>B0CPQML6TS</t>
+  </si>
+  <si>
+    <t>B0CPQ88F7X</t>
+  </si>
+  <si>
+    <t>B0CPQ8XM9Z</t>
+  </si>
+  <si>
+    <t>B09N74MYL7</t>
+  </si>
+  <si>
+    <t>B09T2QWDYY</t>
+  </si>
+  <si>
+    <t>B07W5LSX71</t>
+  </si>
+  <si>
+    <t>B09T5WL6YW</t>
+  </si>
+  <si>
+    <t>B09T5SDSYX</t>
+  </si>
+  <si>
+    <t>B08YMLHP1Z</t>
+  </si>
+  <si>
+    <t>B07YZ26VVQ</t>
+  </si>
+  <si>
+    <t>B07YZ2NCR5</t>
+  </si>
+  <si>
+    <t>B0DJMVRMM5</t>
+  </si>
+  <si>
+    <t>B0DJMWKGLN</t>
+  </si>
+  <si>
+    <t>B0DJMVYK9B</t>
+  </si>
+  <si>
+    <t>B0DJMXBKN4</t>
+  </si>
+  <si>
+    <t>B0DL78MJMY</t>
+  </si>
+  <si>
+    <t>B0DL7LNS2H</t>
+  </si>
+  <si>
+    <t>B0DL7T732W</t>
+  </si>
+  <si>
+    <t>B0DL717JPS</t>
   </si>
 </sst>
 </file>
@@ -555,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A48"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,21 +779,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE909B4A-6EC0-4FF7-B1C0-6C4DB438E6D5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC962774-4217-4511-BAD7-778E2948717E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="61890" yWindow="2730" windowWidth="7500" windowHeight="15345" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,141 +36,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B0CSTCZMQ5</t>
-  </si>
-  <si>
-    <t>B0BTJYYTGM</t>
-  </si>
-  <si>
-    <t>B0BTK4H5VS</t>
-  </si>
-  <si>
-    <t>B09VKFM255</t>
-  </si>
-  <si>
-    <t>B0BZFVFTWC</t>
-  </si>
-  <si>
-    <t>B09VK35VYJ</t>
-  </si>
-  <si>
-    <t>B09VKF3CFC</t>
-  </si>
-  <si>
-    <t>B0CKM1JX4S</t>
-  </si>
-  <si>
-    <t>B0BSMJM9D7</t>
-  </si>
-  <si>
-    <t>B09RK7GFQL</t>
-  </si>
-  <si>
-    <t>B09VK3TVK2</t>
-  </si>
-  <si>
-    <t>B09VK3W3Y3</t>
-  </si>
-  <si>
-    <t>B079SSKYWB</t>
-  </si>
-  <si>
-    <t>B08DKJJFW6</t>
-  </si>
-  <si>
-    <t>B08BT9CJYX</t>
-  </si>
-  <si>
-    <t>B08JGPBML2</t>
-  </si>
-  <si>
-    <t>B08DK7YPX4</t>
-  </si>
-  <si>
-    <t>B07ZS9GZRY</t>
-  </si>
-  <si>
-    <t>B07HCXL27D</t>
-  </si>
-  <si>
-    <t>B09T39WL99</t>
-  </si>
-  <si>
-    <t>B0CPQBJ3JW</t>
-  </si>
-  <si>
-    <t>B08YMY8ZZ3</t>
-  </si>
-  <si>
-    <t>B08YMVNQDJ</t>
-  </si>
-  <si>
-    <t>B0CPQ8V6LM</t>
-  </si>
-  <si>
-    <t>B0CPQ9M15Y</t>
-  </si>
-  <si>
-    <t>B0CPQML6TS</t>
-  </si>
-  <si>
-    <t>B0CPQ88F7X</t>
-  </si>
-  <si>
-    <t>B0CPQ8XM9Z</t>
-  </si>
-  <si>
-    <t>B09N74MYL7</t>
-  </si>
-  <si>
-    <t>B09T2QWDYY</t>
-  </si>
-  <si>
-    <t>B07W5LSX71</t>
-  </si>
-  <si>
-    <t>B09T5WL6YW</t>
-  </si>
-  <si>
-    <t>B09T5SDSYX</t>
-  </si>
-  <si>
-    <t>B08YMLHP1Z</t>
-  </si>
-  <si>
-    <t>B07YZ26VVQ</t>
-  </si>
-  <si>
-    <t>B07YZ2NCR5</t>
-  </si>
-  <si>
-    <t>B0DJMVRMM5</t>
-  </si>
-  <si>
-    <t>B0DJMWKGLN</t>
-  </si>
-  <si>
-    <t>B0DJMVYK9B</t>
-  </si>
-  <si>
-    <t>B0DJMXBKN4</t>
-  </si>
-  <si>
-    <t>B0DL78MJMY</t>
-  </si>
-  <si>
-    <t>B0DL7LNS2H</t>
-  </si>
-  <si>
-    <t>B0DL7T732W</t>
-  </si>
-  <si>
-    <t>B0DL717JPS</t>
+    <t>B0C4BH2Z7D</t>
+  </si>
+  <si>
+    <t>B0C4BKJCWV</t>
+  </si>
+  <si>
+    <t>B0CDNCNBSP</t>
+  </si>
+  <si>
+    <t>B0CDP24LW9</t>
+  </si>
+  <si>
+    <t>B091ZG1ZC6</t>
+  </si>
+  <si>
+    <t>B09SBV8M5F</t>
+  </si>
+  <si>
+    <t>B0CXZK5JGC</t>
+  </si>
+  <si>
+    <t>B08XY93JT3</t>
+  </si>
+  <si>
+    <t>B07G5RD1XK</t>
+  </si>
+  <si>
+    <t>B09MDTM5Z6</t>
+  </si>
+  <si>
+    <t>B08FCY3BM2</t>
+  </si>
+  <si>
+    <t>B0BHM59TQB</t>
+  </si>
+  <si>
+    <t>B07TJX83W2</t>
+  </si>
+  <si>
+    <t>B07QJ756H8</t>
+  </si>
+  <si>
+    <t>B083GTQPXF</t>
+  </si>
+  <si>
+    <t>B07TJWZGL9</t>
+  </si>
+  <si>
+    <t>B084KGJDDM</t>
+  </si>
+  <si>
+    <t>B099ZF7M85</t>
+  </si>
+  <si>
+    <t>B0CKHM2ZQ6</t>
+  </si>
+  <si>
+    <t>B07GBZL93X</t>
+  </si>
+  <si>
+    <t>B08FWY81LM</t>
+  </si>
+  <si>
+    <t>B07Z9YBT3T</t>
+  </si>
+  <si>
+    <t>B091ZFTQQ1</t>
+  </si>
+  <si>
+    <t>B07QBVWCQL</t>
+  </si>
+  <si>
+    <t>B07GJKR7RX</t>
+  </si>
+  <si>
+    <t>B08XY9146V</t>
+  </si>
+  <si>
+    <t>B07VV87QVL</t>
   </si>
 </sst>
 </file>
@@ -546,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,91 +643,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC962774-4217-4511-BAD7-778E2948717E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A70A68-EDDA-4BAA-9F77-FEB0640D4B29}"/>
   <bookViews>
-    <workbookView xWindow="61890" yWindow="2730" windowWidth="7500" windowHeight="15345" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,90 +36,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B0C4BH2Z7D</t>
-  </si>
-  <si>
-    <t>B0C4BKJCWV</t>
-  </si>
-  <si>
-    <t>B0CDNCNBSP</t>
-  </si>
-  <si>
-    <t>B0CDP24LW9</t>
-  </si>
-  <si>
-    <t>B091ZG1ZC6</t>
-  </si>
-  <si>
-    <t>B09SBV8M5F</t>
-  </si>
-  <si>
-    <t>B0CXZK5JGC</t>
-  </si>
-  <si>
-    <t>B08XY93JT3</t>
-  </si>
-  <si>
-    <t>B07G5RD1XK</t>
-  </si>
-  <si>
-    <t>B09MDTM5Z6</t>
-  </si>
-  <si>
-    <t>B08FCY3BM2</t>
-  </si>
-  <si>
-    <t>B0BHM59TQB</t>
-  </si>
-  <si>
-    <t>B07TJX83W2</t>
-  </si>
-  <si>
-    <t>B07QJ756H8</t>
-  </si>
-  <si>
-    <t>B083GTQPXF</t>
-  </si>
-  <si>
-    <t>B07TJWZGL9</t>
-  </si>
-  <si>
-    <t>B084KGJDDM</t>
-  </si>
-  <si>
-    <t>B099ZF7M85</t>
-  </si>
-  <si>
-    <t>B0CKHM2ZQ6</t>
-  </si>
-  <si>
-    <t>B07GBZL93X</t>
-  </si>
-  <si>
-    <t>B08FWY81LM</t>
-  </si>
-  <si>
-    <t>B07Z9YBT3T</t>
-  </si>
-  <si>
-    <t>B091ZFTQQ1</t>
-  </si>
-  <si>
-    <t>B07QBVWCQL</t>
-  </si>
-  <si>
-    <t>B07GJKR7RX</t>
-  </si>
-  <si>
-    <t>B08XY9146V</t>
-  </si>
-  <si>
-    <t>B07VV87QVL</t>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B083HZHP62</t>
   </si>
 </sst>
 </file>
@@ -495,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,117 +641,312 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E08A81-01DA-49A2-BB35-EB8AB2DEAFD4}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6689414B-6241-475C-BB0F-F9A84106BDB5}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15885" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="4305" yWindow="3495" windowWidth="28800" windowHeight="15885" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B0BH9DXY38</t>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
   </si>
 </sst>
 </file>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +472,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6689414B-6241-475C-BB0F-F9A84106BDB5}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F8C05C0-150D-4880-A170-8FB1C4B47B62}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="3495" windowWidth="28800" windowHeight="15885" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="33945" yWindow="4170" windowWidth="28800" windowHeight="15885" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>B0CMJSH15D</t>
-  </si>
-  <si>
-    <t>B083RW9TJF</t>
-  </si>
-  <si>
-    <t>B0CKS6BMH7</t>
-  </si>
-  <si>
-    <t>B083RVX2FQ</t>
-  </si>
-  <si>
-    <t>B083TZ68H1</t>
-  </si>
-  <si>
-    <t>B0D2V4VH2C</t>
+    <t>B091HTG6DQ</t>
   </si>
 </sst>
 </file>
@@ -113,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,34 +454,30 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F8C05C0-150D-4880-A170-8FB1C4B47B62}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A70A68-EDDA-4BAA-9F77-FEB0640D4B29}"/>
   <bookViews>
-    <workbookView xWindow="33945" yWindow="4170" windowWidth="28800" windowHeight="15885" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>ASIN</t>
   </si>
   <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
     <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B083HZHP62</t>
   </si>
 </sst>
 </file>
@@ -57,21 +246,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,29 +262,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,30 +620,334 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C797E7D9-BF5D-4EE1-9D94-2D10D5B62971}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D606CE-8C2B-4D82-847A-A919BB5D7126}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ASIN</t>
   </si>
   <si>
     <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
   </si>
 </sst>
 </file>
@@ -57,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,9 +239,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,12 +596,234 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D606CE-8C2B-4D82-847A-A919BB5D7126}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1926AB43-761B-4E49-AC5F-C4EC081E2576}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>ASIN</t>
   </si>
@@ -177,6 +177,243 @@
   </si>
   <si>
     <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B07T6N8N56</t>
+  </si>
+  <si>
+    <t>B07FWY246F</t>
+  </si>
+  <si>
+    <t>B07FW85VFT</t>
+  </si>
+  <si>
+    <t>B08KWMXGQW</t>
+  </si>
+  <si>
+    <t>B0D8WH9NG3</t>
+  </si>
+  <si>
+    <t>B08JHDL4WP</t>
+  </si>
+  <si>
+    <t>B08LGKGBKT</t>
+  </si>
+  <si>
+    <t>B089FY7QT1</t>
+  </si>
+  <si>
+    <t>B08BR1XDX5</t>
+  </si>
+  <si>
+    <t>B0CTNYTX8Y</t>
+  </si>
+  <si>
+    <t>B0BH6XND27</t>
+  </si>
+  <si>
+    <t>B083SJLWL9</t>
+  </si>
+  <si>
+    <t>B0CCWLMK56</t>
+  </si>
+  <si>
+    <t>B0D8WKK29M</t>
+  </si>
+  <si>
+    <t>B0BZ17BQ4Z</t>
+  </si>
+  <si>
+    <t>B09SVZRM13</t>
+  </si>
+  <si>
+    <t>B0BJ5SDGXK</t>
+  </si>
+  <si>
+    <t>B0BSB6MZ2L</t>
+  </si>
+  <si>
+    <t>B0CTTW2MVG</t>
+  </si>
+  <si>
+    <t>B0BSNYN4XQ</t>
+  </si>
+  <si>
+    <t>B0CTTWZCVK</t>
+  </si>
+  <si>
+    <t>B0BVWQ3BMJ</t>
+  </si>
+  <si>
+    <t>B0BZQ1PWGJ</t>
+  </si>
+  <si>
+    <t>B083R7SWF5</t>
+  </si>
+  <si>
+    <t>B079NYQQJJ</t>
+  </si>
+  <si>
+    <t>B07VNBC5PS</t>
+  </si>
+  <si>
+    <t>B07WL5MFXL</t>
+  </si>
+  <si>
+    <t>B0BF7CL99N</t>
+  </si>
+  <si>
+    <t>B0CN76TH9S</t>
+  </si>
+  <si>
+    <t>B0BF73P6HY</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>B087GFYBCW</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>B083NMK4BB</t>
+  </si>
+  <si>
+    <t>B081JDLX48</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>B0BHTMXMRQ</t>
+  </si>
+  <si>
+    <t>B083R7T5P4</t>
+  </si>
+  <si>
+    <t>B0BZQ43XXL</t>
+  </si>
+  <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B0DJP9LCYC</t>
+  </si>
+  <si>
+    <t>B0DJP8NFWP</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>B0DJP9DBVS</t>
+  </si>
+  <si>
+    <t>B0DJP8MMMJ</t>
+  </si>
+  <si>
+    <t>B0DJP8W3BY</t>
+  </si>
+  <si>
+    <t>B0DJP8Q6JK</t>
+  </si>
+  <si>
+    <t>B0DJP9FZYK</t>
+  </si>
+  <si>
+    <t>B0DJP82ML2</t>
   </si>
 </sst>
 </file>
@@ -192,24 +429,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -239,11 +464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,233 +819,628 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
+      <c r="A11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
+      <c r="A13" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
+      <c r="A15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
+      <c r="A19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
+      <c r="A20" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
+      <c r="A21" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
+      <c r="A44" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
+      <c r="A45" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
+      <c r="A46" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1926AB43-761B-4E49-AC5F-C4EC081E2576}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="23040" windowHeight="12168" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +482,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,638 +803,638 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A101" sqref="A101:A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1926AB43-761B-4E49-AC5F-C4EC081E2576}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3720192-7CF5-458C-9950-DB82924FC010}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="23040" windowHeight="12168" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,141 +36,390 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>ASIN</t>
   </si>
   <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0BF7CL99N</t>
+  </si>
+  <si>
+    <t>B0CN76TH9S</t>
+  </si>
+  <si>
+    <t>B0BF73P6HY</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B07T6N8N56</t>
+  </si>
+  <si>
+    <t>B07FW85VFT</t>
+  </si>
+  <si>
+    <t>B07FWVJSHC</t>
+  </si>
+  <si>
+    <t>B08KWMXGQW</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B0D8WH9NG3</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B08LGKGBKT</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08BR1XDX5</t>
+  </si>
+  <si>
     <t>B0BZQ1TNW8</t>
   </si>
   <si>
-    <t>B08KGVH7YC</t>
+    <t>B089FY7QT1</t>
   </si>
   <si>
     <t>B08R5736B3</t>
   </si>
   <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0CTNYTX8Y</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BH6XND27</t>
+  </si>
+  <si>
+    <t>B083SJLWL9</t>
+  </si>
+  <si>
+    <t>B0CCWLMK56</t>
+  </si>
+  <si>
+    <t>B0D8WKK29M</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B0BZ17BQ4Z</t>
+  </si>
+  <si>
+    <t>B09SVZRM13</t>
+  </si>
+  <si>
+    <t>B0BJ5SDGXK</t>
+  </si>
+  <si>
+    <t>B083NMK4BB</t>
+  </si>
+  <si>
+    <t>B0BSB6MZ2L</t>
+  </si>
+  <si>
+    <t>B0BSNYN4XQ</t>
+  </si>
+  <si>
+    <t>B0CTTW2MVG</t>
+  </si>
+  <si>
+    <t>B0CTTWZCVK</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0BVWQ3BMJ</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BZQ1PWGJ</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B083R7SWF5</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0DQLJVH25</t>
+  </si>
+  <si>
+    <t>B0DQLHVQSF</t>
+  </si>
+  <si>
+    <t>B0DQLKRXKW</t>
+  </si>
+  <si>
+    <t>B0DQLJWRDX</t>
+  </si>
+  <si>
+    <t>B0DQLKZSKF</t>
+  </si>
+  <si>
+    <t>B0DQLH22F6</t>
+  </si>
+  <si>
+    <t>B0DQLKPSMG</t>
+  </si>
+  <si>
+    <t>B0DQLJGTRM</t>
+  </si>
+  <si>
+    <t>B0DQLJHJ8B</t>
+  </si>
+  <si>
+    <t>B0DQLHLVLK</t>
+  </si>
+  <si>
+    <t>B0DQLH4ZTR</t>
+  </si>
+  <si>
+    <t>B0DQLL6Z51</t>
+  </si>
+  <si>
+    <t>B0DQLJRY8C</t>
+  </si>
+  <si>
+    <t>B0DQLLLHYY</t>
+  </si>
+  <si>
+    <t>B0DQLK2RF3</t>
+  </si>
+  <si>
+    <t>B0DQLGCVN3</t>
+  </si>
+  <si>
+    <t>B0DQLGMGVP</t>
+  </si>
+  <si>
+    <t>B0DQLHYCVZ</t>
+  </si>
+  <si>
+    <t>B0DQLK9S2V</t>
+  </si>
+  <si>
+    <t>B0DQLJRPTX</t>
+  </si>
+  <si>
+    <t>B079NYQQJJ</t>
+  </si>
+  <si>
+    <t>B07GBM3M88</t>
+  </si>
+  <si>
+    <t>B07VNBC5PS</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
     <t>B083NK82QJ</t>
   </si>
   <si>
-    <t>B091HTG6DQ</t>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B081JDLX48</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B07WL5MFXL</t>
+  </si>
+  <si>
+    <t>B07STNZF9L</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>B087GFYBCW</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>B09J6BWK2Z</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
   </si>
   <si>
     <t>B0BH9BBLHB</t>
   </si>
   <si>
-    <t>B08B7ZX8Q2</t>
-  </si>
-  <si>
     <t>B0BH9DXY38</t>
   </si>
   <si>
-    <t>B089FWWN62</t>
-  </si>
-  <si>
-    <t>B0BSB6MB15</t>
-  </si>
-  <si>
-    <t>B0BF7FT26Z</t>
-  </si>
-  <si>
-    <t>B0BH79FMW3</t>
-  </si>
-  <si>
-    <t>B0BH7GTY9C</t>
-  </si>
-  <si>
-    <t>B0BSB4TYHV</t>
-  </si>
-  <si>
-    <t>B0BSP61QZC</t>
-  </si>
-  <si>
-    <t>B0BTQ3SVFR</t>
-  </si>
-  <si>
-    <t>B0BTTZFQTP</t>
-  </si>
-  <si>
-    <t>B0BVBXT6P1</t>
-  </si>
-  <si>
-    <t>B083R826VW</t>
-  </si>
-  <si>
-    <t>B0BYBHW4SH</t>
-  </si>
-  <si>
-    <t>B0BZ54DR5L</t>
-  </si>
-  <si>
-    <t>B0C4CKCRYW</t>
-  </si>
-  <si>
-    <t>B0C1M2BDNR</t>
-  </si>
-  <si>
-    <t>B0C4CKFV65</t>
-  </si>
-  <si>
-    <t>B0C4CB8G8D</t>
-  </si>
-  <si>
-    <t>B0BZQ416QM</t>
-  </si>
-  <si>
-    <t>B0CH92B3S2</t>
-  </si>
-  <si>
-    <t>B083RW9KDM</t>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
   </si>
   <si>
     <t>B083RW9TJF</t>
   </si>
   <si>
-    <t>B0CNR8Y29S</t>
-  </si>
-  <si>
-    <t>B0CKS6BMH7</t>
-  </si>
-  <si>
-    <t>B083RVX2FQ</t>
-  </si>
-  <si>
-    <t>B0CMJSH15D</t>
-  </si>
-  <si>
-    <t>B0CMK1W2YX</t>
-  </si>
-  <si>
-    <t>B0CNR6L1DH</t>
-  </si>
-  <si>
-    <t>B083TZ68H1</t>
-  </si>
-  <si>
-    <t>B0CTTY491F</t>
-  </si>
-  <si>
-    <t>B0CTNXBRJV</t>
-  </si>
-  <si>
-    <t>B0CTTXH95Q</t>
-  </si>
-  <si>
-    <t>B0D2V4VH2C</t>
-  </si>
-  <si>
-    <t>B0D54QJ9CJ</t>
-  </si>
-  <si>
-    <t>B0D33M6CB7</t>
-  </si>
-  <si>
-    <t>B0CPW1F841</t>
-  </si>
-  <si>
-    <t>B0CTTVFWHM</t>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
   </si>
   <si>
     <t>B0CTNPZLNH</t>
@@ -179,159 +428,6 @@
     <t>B0D8WH39QJ</t>
   </si>
   <si>
-    <t>B08F7BHDLY</t>
-  </si>
-  <si>
-    <t>B08F7HPJ4F</t>
-  </si>
-  <si>
-    <t>B083RVN2VG</t>
-  </si>
-  <si>
-    <t>B0C1ZZ57ZW</t>
-  </si>
-  <si>
-    <t>B0D2V2FPS7</t>
-  </si>
-  <si>
-    <t>B07T6N8N56</t>
-  </si>
-  <si>
-    <t>B07FWY246F</t>
-  </si>
-  <si>
-    <t>B07FW85VFT</t>
-  </si>
-  <si>
-    <t>B08KWMXGQW</t>
-  </si>
-  <si>
-    <t>B0D8WH9NG3</t>
-  </si>
-  <si>
-    <t>B08JHDL4WP</t>
-  </si>
-  <si>
-    <t>B08LGKGBKT</t>
-  </si>
-  <si>
-    <t>B089FY7QT1</t>
-  </si>
-  <si>
-    <t>B08BR1XDX5</t>
-  </si>
-  <si>
-    <t>B0CTNYTX8Y</t>
-  </si>
-  <si>
-    <t>B0BH6XND27</t>
-  </si>
-  <si>
-    <t>B083SJLWL9</t>
-  </si>
-  <si>
-    <t>B0CCWLMK56</t>
-  </si>
-  <si>
-    <t>B0D8WKK29M</t>
-  </si>
-  <si>
-    <t>B0BZ17BQ4Z</t>
-  </si>
-  <si>
-    <t>B09SVZRM13</t>
-  </si>
-  <si>
-    <t>B0BJ5SDGXK</t>
-  </si>
-  <si>
-    <t>B0BSB6MZ2L</t>
-  </si>
-  <si>
-    <t>B0CTTW2MVG</t>
-  </si>
-  <si>
-    <t>B0BSNYN4XQ</t>
-  </si>
-  <si>
-    <t>B0CTTWZCVK</t>
-  </si>
-  <si>
-    <t>B0BVWQ3BMJ</t>
-  </si>
-  <si>
-    <t>B0BZQ1PWGJ</t>
-  </si>
-  <si>
-    <t>B083R7SWF5</t>
-  </si>
-  <si>
-    <t>B079NYQQJJ</t>
-  </si>
-  <si>
-    <t>B07VNBC5PS</t>
-  </si>
-  <si>
-    <t>B07WL5MFXL</t>
-  </si>
-  <si>
-    <t>B0BF7CL99N</t>
-  </si>
-  <si>
-    <t>B0CN76TH9S</t>
-  </si>
-  <si>
-    <t>B0BF73P6HY</t>
-  </si>
-  <si>
-    <t>B07HS59X7P</t>
-  </si>
-  <si>
-    <t>B087GFYBCW</t>
-  </si>
-  <si>
-    <t>B087GH5SK2</t>
-  </si>
-  <si>
-    <t>B083GT6ZBX</t>
-  </si>
-  <si>
-    <t>B083NN4MLZ</t>
-  </si>
-  <si>
-    <t>B09L9DY4L1</t>
-  </si>
-  <si>
-    <t>B09J64TBJG</t>
-  </si>
-  <si>
-    <t>B09JZFT4SN</t>
-  </si>
-  <si>
-    <t>B09J5TC4F8</t>
-  </si>
-  <si>
-    <t>B09JZGTYXJ</t>
-  </si>
-  <si>
-    <t>B083NMK4BB</t>
-  </si>
-  <si>
-    <t>B081JDLX48</t>
-  </si>
-  <si>
-    <t>B0BH9F7DKS</t>
-  </si>
-  <si>
-    <t>B0CTTWH6TD</t>
-  </si>
-  <si>
-    <t>B083R7PHMX</t>
-  </si>
-  <si>
-    <t>B08WPV5HS7</t>
-  </si>
-  <si>
     <t>B0BSVYXM5C</t>
   </si>
   <si>
@@ -347,37 +443,19 @@
     <t>B0BZQ43XXL</t>
   </si>
   <si>
-    <t>B0DGVC3DDW</t>
-  </si>
-  <si>
-    <t>B0DGVBM73J</t>
-  </si>
-  <si>
-    <t>B0DGVSW4FD</t>
-  </si>
-  <si>
-    <t>B0DGVGRVLQ</t>
-  </si>
-  <si>
-    <t>B0DFHPZBGM</t>
-  </si>
-  <si>
     <t>B0D2PK3CC1</t>
   </si>
   <si>
-    <t>B0DHWLN5XT</t>
-  </si>
-  <si>
-    <t>B0DGVMYTW6</t>
-  </si>
-  <si>
-    <t>B0DGVGV7YN</t>
-  </si>
-  <si>
-    <t>B0DGVGT3PJ</t>
-  </si>
-  <si>
-    <t>B0DGVBSLLP</t>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
   </si>
   <si>
     <t>B0DJP9LCYC</t>
@@ -386,34 +464,22 @@
     <t>B0DJP8NFWP</t>
   </si>
   <si>
-    <t>B0DJP76L1F</t>
-  </si>
-  <si>
-    <t>B0DJP7NRXX</t>
-  </si>
-  <si>
-    <t>B0DJP95MGB</t>
-  </si>
-  <si>
-    <t>B0DJP9KLLD</t>
+    <t>B0DJP8MMMJ</t>
   </si>
   <si>
     <t>B0DJP9DBVS</t>
   </si>
   <si>
-    <t>B0DJP8MMMJ</t>
-  </si>
-  <si>
     <t>B0DJP8W3BY</t>
   </si>
   <si>
+    <t>B0DJP82ML2</t>
+  </si>
+  <si>
     <t>B0DJP8Q6JK</t>
   </si>
   <si>
     <t>B0DJP9FZYK</t>
-  </si>
-  <si>
-    <t>B0DJP82ML2</t>
   </si>
 </sst>
 </file>
@@ -482,6 +548,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,487 +886,487 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
@@ -1437,6 +1507,116 @@
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3720192-7CF5-458C-9950-DB82924FC010}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33E5357-05C6-4221-A6DC-49FD9C4A8C49}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
   <dimension ref="A1:A148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A148"/>
     </sheetView>
   </sheetViews>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91986A86-B373-4F2D-81A4-87750351CFB9}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33E5357-05C6-4221-A6DC-49FD9C4A8C49}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
@@ -36,12 +36,450 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>ASIN</t>
   </si>
   <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0BF7CL99N</t>
+  </si>
+  <si>
+    <t>B0CN76TH9S</t>
+  </si>
+  <si>
+    <t>B0BF73P6HY</t>
+  </si>
+  <si>
     <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B07T6N8N56</t>
+  </si>
+  <si>
+    <t>B07FW85VFT</t>
+  </si>
+  <si>
+    <t>B07FWVJSHC</t>
+  </si>
+  <si>
+    <t>B08KWMXGQW</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B0D8WH9NG3</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B08LGKGBKT</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08BR1XDX5</t>
+  </si>
+  <si>
+    <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B089FY7QT1</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0CTNYTX8Y</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BH6XND27</t>
+  </si>
+  <si>
+    <t>B083SJLWL9</t>
+  </si>
+  <si>
+    <t>B0CCWLMK56</t>
+  </si>
+  <si>
+    <t>B0D8WKK29M</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B0BZ17BQ4Z</t>
+  </si>
+  <si>
+    <t>B09SVZRM13</t>
+  </si>
+  <si>
+    <t>B0BJ5SDGXK</t>
+  </si>
+  <si>
+    <t>B083NMK4BB</t>
+  </si>
+  <si>
+    <t>B0BSB6MZ2L</t>
+  </si>
+  <si>
+    <t>B0BSNYN4XQ</t>
+  </si>
+  <si>
+    <t>B0CTTW2MVG</t>
+  </si>
+  <si>
+    <t>B0CTTWZCVK</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0BVWQ3BMJ</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BZQ1PWGJ</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B083R7SWF5</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0DQLJVH25</t>
+  </si>
+  <si>
+    <t>B0DQLHVQSF</t>
+  </si>
+  <si>
+    <t>B0DQLKRXKW</t>
+  </si>
+  <si>
+    <t>B0DQLJWRDX</t>
+  </si>
+  <si>
+    <t>B0DQLKZSKF</t>
+  </si>
+  <si>
+    <t>B0DQLH22F6</t>
+  </si>
+  <si>
+    <t>B0DQLKPSMG</t>
+  </si>
+  <si>
+    <t>B0DQLJGTRM</t>
+  </si>
+  <si>
+    <t>B0DQLJHJ8B</t>
+  </si>
+  <si>
+    <t>B0DQLHLVLK</t>
+  </si>
+  <si>
+    <t>B0DQLH4ZTR</t>
+  </si>
+  <si>
+    <t>B0DQLL6Z51</t>
+  </si>
+  <si>
+    <t>B0DQLJRY8C</t>
+  </si>
+  <si>
+    <t>B0DQLLLHYY</t>
+  </si>
+  <si>
+    <t>B0DQLK2RF3</t>
+  </si>
+  <si>
+    <t>B0DQLGCVN3</t>
+  </si>
+  <si>
+    <t>B0DQLGMGVP</t>
+  </si>
+  <si>
+    <t>B0DQLHYCVZ</t>
+  </si>
+  <si>
+    <t>B0DQLK9S2V</t>
+  </si>
+  <si>
+    <t>B0DQLJRPTX</t>
+  </si>
+  <si>
+    <t>B079NYQQJJ</t>
+  </si>
+  <si>
+    <t>B07GBM3M88</t>
+  </si>
+  <si>
+    <t>B07VNBC5PS</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B081JDLX48</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B07WL5MFXL</t>
+  </si>
+  <si>
+    <t>B07STNZF9L</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>B087GFYBCW</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>B09J6BWK2Z</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>B0BHTMXMRQ</t>
+  </si>
+  <si>
+    <t>B083R7T5P4</t>
+  </si>
+  <si>
+    <t>B0BZQ43XXL</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
+  </si>
+  <si>
+    <t>B0DJP9LCYC</t>
+  </si>
+  <si>
+    <t>B0DJP8NFWP</t>
+  </si>
+  <si>
+    <t>B0DJP8MMMJ</t>
+  </si>
+  <si>
+    <t>B0DJP9DBVS</t>
+  </si>
+  <si>
+    <t>B0DJP8W3BY</t>
+  </si>
+  <si>
+    <t>B0DJP82ML2</t>
+  </si>
+  <si>
+    <t>B0DJP8Q6JK</t>
+  </si>
+  <si>
+    <t>B0DJP9FZYK</t>
   </si>
 </sst>
 </file>
@@ -433,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,380 +886,738 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-    </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charleshsu\OneDrive - Gigabyte\Documents\GitHub\Forecast Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAC831-D134-4285-9A16-AF3DB826BFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33E5357-05C6-4221-A6DC-49FD9C4A8C49}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,450 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>ASIN</t>
   </si>
   <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0BF7CL99N</t>
+  </si>
+  <si>
+    <t>B0CN76TH9S</t>
+  </si>
+  <si>
+    <t>B0BF73P6HY</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B07T6N8N56</t>
+  </si>
+  <si>
+    <t>B07FW85VFT</t>
+  </si>
+  <si>
+    <t>B07FWVJSHC</t>
+  </si>
+  <si>
+    <t>B08KWMXGQW</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B0D8WH9NG3</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B08LGKGBKT</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08BR1XDX5</t>
+  </si>
+  <si>
+    <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B089FY7QT1</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0CTNYTX8Y</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BH6XND27</t>
+  </si>
+  <si>
+    <t>B083SJLWL9</t>
+  </si>
+  <si>
+    <t>B0CCWLMK56</t>
+  </si>
+  <si>
+    <t>B0D8WKK29M</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B0BZ17BQ4Z</t>
+  </si>
+  <si>
+    <t>B09SVZRM13</t>
+  </si>
+  <si>
+    <t>B0BJ5SDGXK</t>
+  </si>
+  <si>
+    <t>B083NMK4BB</t>
+  </si>
+  <si>
+    <t>B0BSB6MZ2L</t>
+  </si>
+  <si>
+    <t>B0BSNYN4XQ</t>
+  </si>
+  <si>
+    <t>B0CTTW2MVG</t>
+  </si>
+  <si>
+    <t>B0CTTWZCVK</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0BVWQ3BMJ</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BZQ1PWGJ</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B083R7SWF5</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0DQLJVH25</t>
+  </si>
+  <si>
+    <t>B0DQLHVQSF</t>
+  </si>
+  <si>
+    <t>B0DQLKRXKW</t>
+  </si>
+  <si>
+    <t>B0DQLJWRDX</t>
+  </si>
+  <si>
+    <t>B0DQLKZSKF</t>
+  </si>
+  <si>
+    <t>B0DQLH22F6</t>
+  </si>
+  <si>
+    <t>B0DQLKPSMG</t>
+  </si>
+  <si>
+    <t>B0DQLJGTRM</t>
+  </si>
+  <si>
+    <t>B0DQLJHJ8B</t>
+  </si>
+  <si>
+    <t>B0DQLHLVLK</t>
+  </si>
+  <si>
+    <t>B0DQLH4ZTR</t>
+  </si>
+  <si>
+    <t>B0DQLL6Z51</t>
+  </si>
+  <si>
+    <t>B0DQLJRY8C</t>
+  </si>
+  <si>
+    <t>B0DQLLLHYY</t>
+  </si>
+  <si>
+    <t>B0DQLK2RF3</t>
+  </si>
+  <si>
+    <t>B0DQLGCVN3</t>
+  </si>
+  <si>
+    <t>B0DQLGMGVP</t>
+  </si>
+  <si>
+    <t>B0DQLHYCVZ</t>
+  </si>
+  <si>
+    <t>B0DQLK9S2V</t>
+  </si>
+  <si>
+    <t>B0DQLJRPTX</t>
+  </si>
+  <si>
+    <t>B079NYQQJJ</t>
+  </si>
+  <si>
+    <t>B07GBM3M88</t>
+  </si>
+  <si>
+    <t>B07VNBC5PS</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B081JDLX48</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B07WL5MFXL</t>
+  </si>
+  <si>
+    <t>B07STNZF9L</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>B087GFYBCW</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>B09J6BWK2Z</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>B0BHTMXMRQ</t>
+  </si>
+  <si>
+    <t>B083R7T5P4</t>
+  </si>
+  <si>
+    <t>B0BZQ43XXL</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
+  </si>
+  <si>
+    <t>B0DJP9LCYC</t>
+  </si>
+  <si>
+    <t>B0DJP8NFWP</t>
+  </si>
+  <si>
+    <t>B0DJP8MMMJ</t>
+  </si>
+  <si>
+    <t>B0DJP9DBVS</t>
+  </si>
+  <si>
     <t>B0DJP8W3BY</t>
   </si>
   <si>
-    <t>B083RVN2VG</t>
-  </si>
-  <si>
-    <t>B0D2V2FPS7</t>
-  </si>
-  <si>
-    <t>B0C1ZZ57ZW</t>
+    <t>B0DJP82ML2</t>
+  </si>
+  <si>
+    <t>B0DJP8Q6JK</t>
+  </si>
+  <si>
+    <t>B0DJP9FZYK</t>
   </si>
 </sst>
 </file>
@@ -119,6 +548,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,377 +886,738 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-    </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charleshsu\OneDrive - Gigabyte\Documents\GitHub\Forecast Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C7B52-0514-410C-B4E4-545AAA7ADEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821FB51-3ACB-4553-99D5-F5BC6AEBC1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="0" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="37044" yWindow="3396" windowWidth="23040" windowHeight="12120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charleshsu\OneDrive - Gigabyte\Documents\GitHub\Forecast Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Documents/GitHub/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821FB51-3ACB-4553-99D5-F5BC6AEBC1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33E5357-05C6-4221-A6DC-49FD9C4A8C49}"/>
   <bookViews>
-    <workbookView xWindow="37044" yWindow="3396" windowWidth="23040" windowHeight="12120" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,450 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>ASIN</t>
   </si>
   <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0BF7CL99N</t>
+  </si>
+  <si>
+    <t>B0CN76TH9S</t>
+  </si>
+  <si>
+    <t>B0BF73P6HY</t>
+  </si>
+  <si>
     <t>B08F7BHDLY</t>
   </si>
   <si>
     <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B07T6N8N56</t>
+  </si>
+  <si>
+    <t>B07FW85VFT</t>
+  </si>
+  <si>
+    <t>B07FWVJSHC</t>
+  </si>
+  <si>
+    <t>B08KWMXGQW</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B0D8WH9NG3</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B08LGKGBKT</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08BR1XDX5</t>
+  </si>
+  <si>
+    <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B089FY7QT1</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0CTNYTX8Y</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BH6XND27</t>
+  </si>
+  <si>
+    <t>B083SJLWL9</t>
+  </si>
+  <si>
+    <t>B0CCWLMK56</t>
+  </si>
+  <si>
+    <t>B0D8WKK29M</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B0BZ17BQ4Z</t>
+  </si>
+  <si>
+    <t>B09SVZRM13</t>
+  </si>
+  <si>
+    <t>B0BJ5SDGXK</t>
+  </si>
+  <si>
+    <t>B083NMK4BB</t>
+  </si>
+  <si>
+    <t>B0BSB6MZ2L</t>
+  </si>
+  <si>
+    <t>B0BSNYN4XQ</t>
+  </si>
+  <si>
+    <t>B0CTTW2MVG</t>
+  </si>
+  <si>
+    <t>B0CTTWZCVK</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0BVWQ3BMJ</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BZQ1PWGJ</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B083R7SWF5</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0DQLJVH25</t>
+  </si>
+  <si>
+    <t>B0DQLHVQSF</t>
+  </si>
+  <si>
+    <t>B0DQLKRXKW</t>
+  </si>
+  <si>
+    <t>B0DQLJWRDX</t>
+  </si>
+  <si>
+    <t>B0DQLKZSKF</t>
+  </si>
+  <si>
+    <t>B0DQLH22F6</t>
+  </si>
+  <si>
+    <t>B0DQLKPSMG</t>
+  </si>
+  <si>
+    <t>B0DQLJGTRM</t>
+  </si>
+  <si>
+    <t>B0DQLJHJ8B</t>
+  </si>
+  <si>
+    <t>B0DQLHLVLK</t>
+  </si>
+  <si>
+    <t>B0DQLH4ZTR</t>
+  </si>
+  <si>
+    <t>B0DQLL6Z51</t>
+  </si>
+  <si>
+    <t>B0DQLJRY8C</t>
+  </si>
+  <si>
+    <t>B0DQLLLHYY</t>
+  </si>
+  <si>
+    <t>B0DQLK2RF3</t>
+  </si>
+  <si>
+    <t>B0DQLGCVN3</t>
+  </si>
+  <si>
+    <t>B0DQLGMGVP</t>
+  </si>
+  <si>
+    <t>B0DQLHYCVZ</t>
+  </si>
+  <si>
+    <t>B0DQLK9S2V</t>
+  </si>
+  <si>
+    <t>B0DQLJRPTX</t>
+  </si>
+  <si>
+    <t>B079NYQQJJ</t>
+  </si>
+  <si>
+    <t>B07GBM3M88</t>
+  </si>
+  <si>
+    <t>B07VNBC5PS</t>
+  </si>
+  <si>
+    <t>B091HTG6DQ</t>
+  </si>
+  <si>
+    <t>B0D33M6CB7</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B081JDLX48</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B07WL5MFXL</t>
+  </si>
+  <si>
+    <t>B07STNZF9L</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>B087GFYBCW</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>B08WPV5HS7</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>B09J6BWK2Z</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>B083RVX2FQ</t>
+  </si>
+  <si>
+    <t>B083RW9TJF</t>
+  </si>
+  <si>
+    <t>B0CTTWH6TD</t>
+  </si>
+  <si>
+    <t>B083R7PHMX</t>
+  </si>
+  <si>
+    <t>B0CTNPZLNH</t>
+  </si>
+  <si>
+    <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>B0BHTMXMRQ</t>
+  </si>
+  <si>
+    <t>B083R7T5P4</t>
+  </si>
+  <si>
+    <t>B0BZQ43XXL</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
+  </si>
+  <si>
+    <t>B0DJP9LCYC</t>
+  </si>
+  <si>
+    <t>B0DJP8NFWP</t>
+  </si>
+  <si>
+    <t>B0DJP8MMMJ</t>
+  </si>
+  <si>
+    <t>B0DJP9DBVS</t>
+  </si>
+  <si>
+    <t>B0DJP8W3BY</t>
+  </si>
+  <si>
+    <t>B0DJP82ML2</t>
+  </si>
+  <si>
+    <t>B0DJP8Q6JK</t>
+  </si>
+  <si>
+    <t>B0DJP9FZYK</t>
   </si>
 </sst>
 </file>
@@ -113,6 +548,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,382 +886,738 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASINs to Forecast.xlsx
+++ b/ASINs to Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gigabyte365-my.sharepoint.com/personal/charleshsu_gigabyteusa_com/Documents/Laptop/Github/Forecast Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E139A8F-E41E-449D-8575-B8DD2AE5053E}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{45AAEFF9-7462-448C-81ED-DE8115A57EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790E528A-1CF5-4C60-BBB4-1F5E532B0D46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{134BD2A0-BBF2-4515-A7F2-D8D2375BE721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>ASIN</t>
   </si>
@@ -87,6 +87,450 @@
   </si>
   <si>
     <t>B0D8WH39QJ</t>
+  </si>
+  <si>
+    <t>B08F7BHDLY</t>
+  </si>
+  <si>
+    <t>B08F7HPJ4F</t>
+  </si>
+  <si>
+    <t>B083RVN2VG</t>
+  </si>
+  <si>
+    <t>B0C1ZZ57ZW</t>
+  </si>
+  <si>
+    <t>B0D2V2FPS7</t>
+  </si>
+  <si>
+    <t>B0C4CKFV65</t>
+  </si>
+  <si>
+    <t>B07T6N8N56</t>
+  </si>
+  <si>
+    <t>B07FWY246F</t>
+  </si>
+  <si>
+    <t>B07FW85VFT</t>
+  </si>
+  <si>
+    <t>B07FWVJSHC</t>
+  </si>
+  <si>
+    <t>B08KWMXGQW</t>
+  </si>
+  <si>
+    <t>B08B7ZX8Q2</t>
+  </si>
+  <si>
+    <t>B07VQJYR99</t>
+  </si>
+  <si>
+    <t>B08KGVH7YC</t>
+  </si>
+  <si>
+    <t>B0D8WH9NG3</t>
+  </si>
+  <si>
+    <t>B0DXWWWTH8</t>
+  </si>
+  <si>
+    <t>B08LGKGBKT</t>
+  </si>
+  <si>
+    <t>B0BTQ3SVFR</t>
+  </si>
+  <si>
+    <t>B089FWWN62</t>
+  </si>
+  <si>
+    <t>B08BR1XDX5</t>
+  </si>
+  <si>
+    <t>B0BZQ1TNW8</t>
+  </si>
+  <si>
+    <t>B08R5736B3</t>
+  </si>
+  <si>
+    <t>B0BTTZFQTP</t>
+  </si>
+  <si>
+    <t>B0BH79FMW3</t>
+  </si>
+  <si>
+    <t>B0BH7GTY9C</t>
+  </si>
+  <si>
+    <t>B0CMJSH15D</t>
+  </si>
+  <si>
+    <t>B0CMK1W2YX</t>
+  </si>
+  <si>
+    <t>B083TZ68H1</t>
+  </si>
+  <si>
+    <t>B0BYBHW4SH</t>
+  </si>
+  <si>
+    <t>B0CTTY491F</t>
+  </si>
+  <si>
+    <t>B0CTNYTX8Y</t>
+  </si>
+  <si>
+    <t>B0DFHPZBGM</t>
+  </si>
+  <si>
+    <t>B0CTNXBRJV</t>
+  </si>
+  <si>
+    <t>B083R826VW</t>
+  </si>
+  <si>
+    <t>B0BH6XND27</t>
+  </si>
+  <si>
+    <t>B083SJLWL9</t>
+  </si>
+  <si>
+    <t>B0CCWLMK56</t>
+  </si>
+  <si>
+    <t>B0D8WKK29M</t>
+  </si>
+  <si>
+    <t>B0CH92B3S2</t>
+  </si>
+  <si>
+    <t>B0CTTXH95Q</t>
+  </si>
+  <si>
+    <t>B0D2V4VH2C</t>
+  </si>
+  <si>
+    <t>B0BZ17BQ4Z</t>
+  </si>
+  <si>
+    <t>B083NLX6G3</t>
+  </si>
+  <si>
+    <t>B0BJ5SDGXK</t>
+  </si>
+  <si>
+    <t>B083NMK4BB</t>
+  </si>
+  <si>
+    <t>B09QH5MFMN</t>
+  </si>
+  <si>
+    <t>B0BSB6MZ2L</t>
+  </si>
+  <si>
+    <t>B0CTTW2MVG</t>
+  </si>
+  <si>
+    <t>B0BSNYN4XQ</t>
+  </si>
+  <si>
+    <t>B0CTTWZCVK</t>
+  </si>
+  <si>
+    <t>B0D8WH4J3H</t>
+  </si>
+  <si>
+    <t>B0BZ54DR5L</t>
+  </si>
+  <si>
+    <t>B0C4CKCRYW</t>
+  </si>
+  <si>
+    <t>B0BVWQ3BMJ</t>
+  </si>
+  <si>
+    <t>B0BSB4TYHV</t>
+  </si>
+  <si>
+    <t>B0BZQ1PWGJ</t>
+  </si>
+  <si>
+    <t>B0D8WJ3PYB</t>
+  </si>
+  <si>
+    <t>B0CNR6L1DH</t>
+  </si>
+  <si>
+    <t>B0BSP61QZC</t>
+  </si>
+  <si>
+    <t>B083R7SWF5</t>
+  </si>
+  <si>
+    <t>B0BSB6MB15</t>
+  </si>
+  <si>
+    <t>B0D54QJ9CJ</t>
+  </si>
+  <si>
+    <t>B0BSB6J39Z</t>
+  </si>
+  <si>
+    <t>B0DQLH4ZTR</t>
+  </si>
+  <si>
+    <t>B0DQLL6Z51</t>
+  </si>
+  <si>
+    <t>B0DQLJRY8C</t>
+  </si>
+  <si>
+    <t>B0DQLLLHYY</t>
+  </si>
+  <si>
+    <t>B0DQLK2RF3</t>
+  </si>
+  <si>
+    <t>B0DQLGCVN3</t>
+  </si>
+  <si>
+    <t>B0DQLGMGVP</t>
+  </si>
+  <si>
+    <t>B0DQLHYCVZ</t>
+  </si>
+  <si>
+    <t>B0DQLK9S2V</t>
+  </si>
+  <si>
+    <t>B0DQLJRPTX</t>
+  </si>
+  <si>
+    <t>B079NYQQJJ</t>
+  </si>
+  <si>
+    <t>B07Q62FJ2D</t>
+  </si>
+  <si>
+    <t>B0C4CB8G8D</t>
+  </si>
+  <si>
+    <t>B083NK82QJ</t>
+  </si>
+  <si>
+    <t>B0BZQ416QM</t>
+  </si>
+  <si>
+    <t>B0F3QD6QQL</t>
+  </si>
+  <si>
+    <t>B0BVBXT6P1</t>
+  </si>
+  <si>
+    <t>B083Y27ZG7</t>
+  </si>
+  <si>
+    <t>B0F3PT2QVZ</t>
+  </si>
+  <si>
+    <t>B0C1M2BDNR</t>
+  </si>
+  <si>
+    <t>B081JDLX48</t>
+  </si>
+  <si>
+    <t>B0CPW1F841</t>
+  </si>
+  <si>
+    <t>B0DFHQVCBV</t>
+  </si>
+  <si>
+    <t>B07WL5MFXL</t>
+  </si>
+  <si>
+    <t>B07STNZF9L</t>
+  </si>
+  <si>
+    <t>B07SVRZ2DX</t>
+  </si>
+  <si>
+    <t>B0BF7FT26Z</t>
+  </si>
+  <si>
+    <t>B0CNR8Y29S</t>
+  </si>
+  <si>
+    <t>B0BF7CL99N</t>
+  </si>
+  <si>
+    <t>B0CN76TH9S</t>
+  </si>
+  <si>
+    <t>B0BF73P6HY</t>
+  </si>
+  <si>
+    <t>B0DGVC3DDW</t>
+  </si>
+  <si>
+    <t>B0DGVGRVLQ</t>
+  </si>
+  <si>
+    <t>B0DGVMYTW6</t>
+  </si>
+  <si>
+    <t>B0DHWLN5XT</t>
+  </si>
+  <si>
+    <t>B0DGVGT3PJ</t>
+  </si>
+  <si>
+    <t>B0DGVBM73J</t>
+  </si>
+  <si>
+    <t>B0DGVSW4FD</t>
+  </si>
+  <si>
+    <t>B0DGVGV7YN</t>
+  </si>
+  <si>
+    <t>B0DGVBSLLP</t>
+  </si>
+  <si>
+    <t>B083WFQC1C</t>
+  </si>
+  <si>
+    <t>B083WG2VDF</t>
+  </si>
+  <si>
+    <t>B075LGLHBY</t>
+  </si>
+  <si>
+    <t>B07HS59X7P</t>
+  </si>
+  <si>
+    <t>B087GFYBCW</t>
+  </si>
+  <si>
+    <t>B087GH5SK2</t>
+  </si>
+  <si>
+    <t>B083GT6ZBX</t>
+  </si>
+  <si>
+    <t>B083NN4MLZ</t>
+  </si>
+  <si>
+    <t>B09L9DY4L1</t>
+  </si>
+  <si>
+    <t>B09J6BWK2Z</t>
+  </si>
+  <si>
+    <t>B09J64TBJG</t>
+  </si>
+  <si>
+    <t>B09JZFT4SN</t>
+  </si>
+  <si>
+    <t>B09J5TC4F8</t>
+  </si>
+  <si>
+    <t>B09JZGTYXJ</t>
+  </si>
+  <si>
+    <t>B0BH9BBLHB</t>
+  </si>
+  <si>
+    <t>B0BH9DXY38</t>
+  </si>
+  <si>
+    <t>B0BHTLF2X5</t>
+  </si>
+  <si>
+    <t>B0CKS6BMH7</t>
+  </si>
+  <si>
+    <t>B083RW9KDM</t>
+  </si>
+  <si>
+    <t>B0BH9F7DKS</t>
+  </si>
+  <si>
+    <t>B0CTTVFWHM</t>
+  </si>
+  <si>
+    <t>B0BSVYXM5C</t>
+  </si>
+  <si>
+    <t>B0D2RL4PT6</t>
+  </si>
+  <si>
+    <t>B0BHTMXMRQ</t>
+  </si>
+  <si>
+    <t>B083R7T5P4</t>
+  </si>
+  <si>
+    <t>B0BZQ43XXL</t>
+  </si>
+  <si>
+    <t>B0D2PK3CC1</t>
+  </si>
+  <si>
+    <t>B0DJP9KLLD</t>
+  </si>
+  <si>
+    <t>B083WG45VJ</t>
+  </si>
+  <si>
+    <t>B0DJP95MGB</t>
+  </si>
+  <si>
+    <t>B0DJP7NRXX</t>
+  </si>
+  <si>
+    <t>B0DJP76L1F</t>
+  </si>
+  <si>
+    <t>B0DJP9LCYC</t>
+  </si>
+  <si>
+    <t>B0DQLKD2KK</t>
+  </si>
+  <si>
+    <t>B0DJP8NFWP</t>
+  </si>
+  <si>
+    <t>B083WFWPJQ</t>
+  </si>
+  <si>
+    <t>B0DJP8MMMJ</t>
+  </si>
+  <si>
+    <t>B0DJP9DBVS</t>
+  </si>
+  <si>
+    <t>B0DJP8W3BY</t>
+  </si>
+  <si>
+    <t>B0DJP82ML2</t>
+  </si>
+  <si>
+    <t>B0DJP8Q6JK</t>
+  </si>
+  <si>
+    <t>B0DJP9FZYK</t>
+  </si>
+  <si>
+    <t>B08F76J3ZF</t>
+  </si>
+  <si>
+    <t>B0956LDTCJ</t>
+  </si>
+  <si>
+    <t>B0F3PQWDP8</t>
   </si>
 </sst>
 </file>
@@ -474,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF9F6-03F5-416E-B32F-31827F3AFA12}">
-  <dimension ref="A1:A133"/>
+  <dimension ref="A1:A165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:A165"/>
+      <selection activeCell="A2" sqref="A2:A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,431 +933,823 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
